--- a/mbs-perturbation/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4666666666666666</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.52</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.5972222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.8404761904761905</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.5161290322580646</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.6967676767676767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.6867138701120903</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.639904761904762</v>
       </c>
     </row>
   </sheetData>
